--- a/CodeSystem-Example.xlsx
+++ b/CodeSystem-Example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T08:54:21+00:00</t>
+    <t>2022-01-11T09:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
